--- a/pabi_account_report/xlsx_template/xlsx_report_cd_receivable_planning.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_cd_receivable_planning.xlsx
@@ -47,10 +47,10 @@
     <t xml:space="preserve">Date To</t>
   </si>
   <si>
-    <t xml:space="preserve">Customer CD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customer (bank)</t>
+    <t xml:space="preserve">Customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank</t>
   </si>
   <si>
     <t xml:space="preserve">Run By</t>
@@ -249,12 +249,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
